--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.7534618792025</v>
+        <v>7.292895000000001</v>
       </c>
       <c r="H2">
-        <v>12.7534618792025</v>
+        <v>21.878685</v>
       </c>
       <c r="I2">
-        <v>0.7350024857914258</v>
+        <v>0.2565758520803378</v>
       </c>
       <c r="J2">
-        <v>0.7350024857914258</v>
+        <v>0.2565758520803378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.25166814561458</v>
+        <v>13.338276</v>
       </c>
       <c r="N2">
-        <v>5.25166814561458</v>
+        <v>40.01482799999999</v>
       </c>
       <c r="O2">
-        <v>0.646386056062093</v>
+        <v>0.80809692568033</v>
       </c>
       <c r="P2">
-        <v>0.646386056062093</v>
+        <v>0.8080969256803301</v>
       </c>
       <c r="Q2">
-        <v>66.97694949731763</v>
+        <v>97.27464634902</v>
       </c>
       <c r="R2">
-        <v>66.97694949731763</v>
+        <v>875.4718171411799</v>
       </c>
       <c r="S2">
-        <v>0.4750953579865543</v>
+        <v>0.2073381572699321</v>
       </c>
       <c r="T2">
-        <v>0.4750953579865543</v>
+        <v>0.2073381572699321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.7534618792025</v>
+        <v>7.292895000000001</v>
       </c>
       <c r="H3">
-        <v>12.7534618792025</v>
+        <v>21.878685</v>
       </c>
       <c r="I3">
-        <v>0.7350024857914258</v>
+        <v>0.2565758520803378</v>
       </c>
       <c r="J3">
-        <v>0.7350024857914258</v>
+        <v>0.2565758520803378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.87299372844988</v>
+        <v>2.961838</v>
       </c>
       <c r="N3">
-        <v>2.87299372844988</v>
+        <v>8.885514000000001</v>
       </c>
       <c r="O3">
-        <v>0.3536139439379069</v>
+        <v>0.1794423943666466</v>
       </c>
       <c r="P3">
-        <v>0.3536139439379069</v>
+        <v>0.1794423943666466</v>
       </c>
       <c r="Q3">
-        <v>36.64061599497341</v>
+        <v>21.60037354101</v>
       </c>
       <c r="R3">
-        <v>36.64061599497341</v>
+        <v>194.40336186909</v>
       </c>
       <c r="S3">
-        <v>0.2599071278048715</v>
+        <v>0.04604058523395836</v>
       </c>
       <c r="T3">
-        <v>0.2599071278048715</v>
+        <v>0.04604058523395837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.59812825245536</v>
+        <v>7.292895000000001</v>
       </c>
       <c r="H4">
-        <v>4.59812825245536</v>
+        <v>21.878685</v>
       </c>
       <c r="I4">
-        <v>0.2649975142085742</v>
+        <v>0.2565758520803378</v>
       </c>
       <c r="J4">
-        <v>0.2649975142085742</v>
+        <v>0.2565758520803378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.25166814561458</v>
+        <v>0.2056733333333333</v>
       </c>
       <c r="N4">
-        <v>5.25166814561458</v>
+        <v>0.6170199999999999</v>
       </c>
       <c r="O4">
-        <v>0.646386056062093</v>
+        <v>0.01246067995302334</v>
       </c>
       <c r="P4">
-        <v>0.646386056062093</v>
+        <v>0.01246067995302335</v>
       </c>
       <c r="Q4">
-        <v>24.14784367287025</v>
+        <v>1.4999540243</v>
       </c>
       <c r="R4">
-        <v>24.14784367287025</v>
+        <v>13.4995862187</v>
       </c>
       <c r="S4">
-        <v>0.1712906980755387</v>
+        <v>0.003197109576447348</v>
       </c>
       <c r="T4">
-        <v>0.1712906980755387</v>
+        <v>0.003197109576447349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.59812825245536</v>
+        <v>14.46476266666667</v>
       </c>
       <c r="H5">
-        <v>4.59812825245536</v>
+        <v>43.394288</v>
       </c>
       <c r="I5">
-        <v>0.2649975142085742</v>
+        <v>0.5088937666509471</v>
       </c>
       <c r="J5">
-        <v>0.2649975142085742</v>
+        <v>0.5088937666509471</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.87299372844988</v>
+        <v>13.338276</v>
       </c>
       <c r="N5">
-        <v>2.87299372844988</v>
+        <v>40.01482799999999</v>
       </c>
       <c r="O5">
-        <v>0.3536139439379069</v>
+        <v>0.80809692568033</v>
       </c>
       <c r="P5">
-        <v>0.3536139439379069</v>
+        <v>0.8080969256803301</v>
       </c>
       <c r="Q5">
-        <v>13.21039363191245</v>
+        <v>192.934996722496</v>
       </c>
       <c r="R5">
-        <v>13.21039363191245</v>
+        <v>1736.414970502464</v>
       </c>
       <c r="S5">
-        <v>0.09370681613303544</v>
+        <v>0.4112354883285136</v>
       </c>
       <c r="T5">
-        <v>0.09370681613303544</v>
+        <v>0.4112354883285136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>14.46476266666667</v>
+      </c>
+      <c r="H6">
+        <v>43.394288</v>
+      </c>
+      <c r="I6">
+        <v>0.5088937666509471</v>
+      </c>
+      <c r="J6">
+        <v>0.5088937666509471</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.961838</v>
+      </c>
+      <c r="N6">
+        <v>8.885514000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.1794423943666466</v>
+      </c>
+      <c r="P6">
+        <v>0.1794423943666466</v>
+      </c>
+      <c r="Q6">
+        <v>42.84228372711467</v>
+      </c>
+      <c r="R6">
+        <v>385.5805535440321</v>
+      </c>
+      <c r="S6">
+        <v>0.09131711596610748</v>
+      </c>
+      <c r="T6">
+        <v>0.09131711596610749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.46476266666667</v>
+      </c>
+      <c r="H7">
+        <v>43.394288</v>
+      </c>
+      <c r="I7">
+        <v>0.5088937666509471</v>
+      </c>
+      <c r="J7">
+        <v>0.5088937666509471</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2056733333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.6170199999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.01246067995302334</v>
+      </c>
+      <c r="P7">
+        <v>0.01246067995302335</v>
+      </c>
+      <c r="Q7">
+        <v>2.975015953528888</v>
+      </c>
+      <c r="R7">
+        <v>26.77514358176</v>
+      </c>
+      <c r="S7">
+        <v>0.006341162356325996</v>
+      </c>
+      <c r="T7">
+        <v>0.006341162356325997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.666276</v>
+      </c>
+      <c r="H8">
+        <v>19.998828</v>
+      </c>
+      <c r="I8">
+        <v>0.2345303812687151</v>
+      </c>
+      <c r="J8">
+        <v>0.2345303812687151</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.338276</v>
+      </c>
+      <c r="N8">
+        <v>40.01482799999999</v>
+      </c>
+      <c r="O8">
+        <v>0.80809692568033</v>
+      </c>
+      <c r="P8">
+        <v>0.8080969256803301</v>
+      </c>
+      <c r="Q8">
+        <v>88.91662918017599</v>
+      </c>
+      <c r="R8">
+        <v>800.2496626215839</v>
+      </c>
+      <c r="S8">
+        <v>0.1895232800818843</v>
+      </c>
+      <c r="T8">
+        <v>0.1895232800818843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.666276</v>
+      </c>
+      <c r="H9">
+        <v>19.998828</v>
+      </c>
+      <c r="I9">
+        <v>0.2345303812687151</v>
+      </c>
+      <c r="J9">
+        <v>0.2345303812687151</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.961838</v>
+      </c>
+      <c r="N9">
+        <v>8.885514000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1794423943666466</v>
+      </c>
+      <c r="P9">
+        <v>0.1794423943666466</v>
+      </c>
+      <c r="Q9">
+        <v>19.744429575288</v>
+      </c>
+      <c r="R9">
+        <v>177.699866177592</v>
+      </c>
+      <c r="S9">
+        <v>0.04208469316658076</v>
+      </c>
+      <c r="T9">
+        <v>0.04208469316658076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.666276</v>
+      </c>
+      <c r="H10">
+        <v>19.998828</v>
+      </c>
+      <c r="I10">
+        <v>0.2345303812687151</v>
+      </c>
+      <c r="J10">
+        <v>0.2345303812687151</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2056733333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.6170199999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.01246067995302334</v>
+      </c>
+      <c r="P10">
+        <v>0.01246067995302335</v>
+      </c>
+      <c r="Q10">
+        <v>1.37107520584</v>
+      </c>
+      <c r="R10">
+        <v>12.33967685256</v>
+      </c>
+      <c r="S10">
+        <v>0.00292240802025</v>
+      </c>
+      <c r="T10">
+        <v>0.00292240802025</v>
       </c>
     </row>
   </sheetData>
